--- a/analysis/steady_state/xlsx/resized_steady_state_017.xlsx
+++ b/analysis/steady_state/xlsx/resized_steady_state_017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1) Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\steady_state\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1 - Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\steady_state\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CD779D-B51F-4A7A-8FEC-AFB3385C8CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11408711-1CA5-4F19-9498-904BF0D98B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="1995" windowWidth="28665" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="38400" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_steady_state_017" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
-    <t>Based on a simulation splitted into 200 batches and with 99.00% confidence</t>
-  </si>
-  <si>
     <t>NODE 1</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Average max response time:</t>
+  </si>
+  <si>
+    <t>Based on a simulation splitted into 64 batches and with 95.00% confidence</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D43"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -958,122 +958,122 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.52637500000000004</v>
+        <v>0.52689600000000003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>1.6100000000000001E-4</v>
+        <v>5.398E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>2.797558</v>
+        <v>2.7945479999999998</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>3.7520000000000001E-3</v>
+        <v>0.121612</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.79799600000000004</v>
+        <v>0.79142400000000002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>3.431E-3</v>
+        <v>0.109916</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>1.9995620000000001</v>
+        <v>2.002745</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>5.8600000000000004E-4</v>
+        <v>2.0379999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>5.3152660000000003</v>
+        <v>5.3084389999999999</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>7.3280000000000003E-3</v>
+        <v>0.238816</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>1.51617</v>
+        <v>1.5061990000000001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>6.5659999999999998E-3</v>
+        <v>0.21133099999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>0.75981900000000002</v>
+        <v>0.76031000000000004</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>2.6499999999999999E-4</v>
+        <v>8.5869999999999991E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1081,122 +1081,122 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.84747499999999998</v>
+        <v>0.84731800000000002</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>3.68E-4</v>
+        <v>1.1624000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
-        <v>3.535285</v>
+        <v>3.509001</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>2.6689999999999999E-3</v>
+        <v>7.2206000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
-        <v>0.33518100000000001</v>
+        <v>0.32366200000000001</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>1.807E-3</v>
+        <v>4.7802999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>3.2001029999999999</v>
+        <v>3.185117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>1.276E-3</v>
+        <v>3.7817999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>4.1719559999999998</v>
+        <v>4.1482320000000001</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>3.5660000000000002E-3</v>
+        <v>9.9894999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>0.39554899999999998</v>
+        <v>0.38419700000000001</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>2.1649999999999998E-3</v>
+        <v>5.7833000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>0.62940099999999999</v>
+        <v>0.62729999999999997</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>3.0899999999999998E-4</v>
+        <v>9.7439999999999992E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -1204,122 +1204,122 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>1.320848</v>
+        <v>1.3249979999999999</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>7.0899999999999999E-4</v>
+        <v>2.2620000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>3.3897499999999998</v>
+        <v>3.3852669999999998</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>5.3249999999999999E-3</v>
+        <v>0.159745</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>0.89</v>
+        <v>0.89924499999999996</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>4.4590000000000003E-3</v>
+        <v>0.13547799999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
-        <v>2.4997500000000001</v>
+        <v>2.4851749999999999</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>1.276E-3</v>
+        <v>3.9510000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1">
-        <v>2.566611</v>
+        <v>2.5686010000000001</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>4.4299999999999999E-3</v>
+        <v>0.13736499999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>0.67388800000000004</v>
+        <v>0.68695899999999999</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>3.4659999999999999E-3</v>
+        <v>0.10886800000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
-        <v>0.63090800000000002</v>
+        <v>0.62709599999999999</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>4.3300000000000001E-4</v>
+        <v>1.3576E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -1327,139 +1327,139 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.38644099999999998</v>
+        <v>0.386467</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>8.7000000000000001E-5</v>
+        <v>2.9120000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
-        <v>2.1104150000000002</v>
+        <v>2.119929</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>1.475E-3</v>
+        <v>4.5718000000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1">
-        <v>0.81035699999999999</v>
+        <v>0.82004600000000005</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>1.1969999999999999E-3</v>
+        <v>3.6830000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1">
-        <v>1.3000579999999999</v>
+        <v>1.299774</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>3.6499999999999998E-4</v>
+        <v>1.2526000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>5.4616619999999996</v>
+        <v>5.479495</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>3.2590000000000002E-3</v>
+        <v>0.107525</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1">
-        <v>2.097162</v>
+        <v>2.117353</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>2.862E-3</v>
+        <v>8.9992000000000003E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
-        <v>0.84112500000000001</v>
+        <v>0.84048400000000001</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
-        <v>2.12E-4</v>
+        <v>8.4239999999999992E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>4.1494999999999997E-2</v>
+        <v>4.1488999999999998E-2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>1.4200000000000001E-4</v>
+        <v>4.0829999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="1">
-        <v>11.833</v>
+        <v>11.8087</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1">
-        <v>7.7000000000000002E-3</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
